--- a/Data/externaldebtgdp.xlsx
+++ b/Data/externaldebtgdp.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timodaehler/Desktop/COVID19-DOMINANCE/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CDEBBA-1035-2945-BE72-E2D68878D489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07730D54-4505-204B-B035-3C357AE04693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{0CFE106A-FC69-DB43-9FF4-9D5FC53CF78F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0CFE106A-FC69-DB43-9FF4-9D5FC53CF78F}"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="3" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
     <sheet name="Source" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="461">
   <si>
     <t>Country Code</t>
   </si>
@@ -1415,6 +1415,9 @@
   </si>
   <si>
     <t>externaldebttogdp</t>
+  </si>
+  <si>
+    <t>This is the data that was copied into the sheet "paneladdition"</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1451,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1464,6 +1467,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,7 +1499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1498,6 +1507,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1813,15 +1823,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BDE859-4EBA-0B4F-861B-3AE154FCA6D8}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B35" sqref="A1:B35"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1829,7 +1839,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1837,8 +1847,15 @@
         <f>VLOOKUP(A2,Data!$C$2:$AL$203,35,FALSE)</f>
         <v>53.998599636011342</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1847,7 +1864,7 @@
         <v>34.411319116035706</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1855,7 +1872,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1864,7 +1881,7 @@
         <v>29.597333484407663</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -1873,7 +1890,7 @@
         <v>61.843981213739326</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -1882,7 +1899,7 @@
         <v>14.176552771499013</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -1891,7 +1908,7 @@
         <v>40.46229255601952</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -1900,7 +1917,7 @@
         <v>39.59510148783211</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>455</v>
       </c>
@@ -1909,7 +1926,7 @@
         <v>39.442060655460288</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>190</v>
       </c>
@@ -1918,7 +1935,7 @@
         <v>35.587391108575297</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>210</v>
       </c>
@@ -1927,7 +1944,7 @@
         <v>93.831025028276059</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>216</v>
       </c>
@@ -1936,7 +1953,7 @@
         <v>36.412313977112312</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>236</v>
       </c>
@@ -1945,7 +1962,7 @@
         <v>87.499004853666307</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>274</v>
       </c>
@@ -1954,7 +1971,7 @@
         <v>62.324735435401934</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>288</v>
       </c>
@@ -2140,7 +2157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C1A8AC-DD7C-2642-AF79-FA1A10614CD6}">
   <dimension ref="A1:AL203"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
